--- a/prep/R/rc_percent_participation.xlsx
+++ b/prep/R/rc_percent_participation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="2600" windowWidth="25600" windowHeight="16200" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="420" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Oahu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="15">
   <si>
     <t>swimming/wading</t>
   </si>
@@ -48,32 +45,51 @@
     <t>canoe or kayaking</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>rgn_id</t>
   </si>
   <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>Kauai</t>
-  </si>
-  <si>
-    <t>Maui Nui</t>
-  </si>
-  <si>
     <t>any ocean activity</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>this is percent of residents that participate in this activities at least once per year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -96,14 +112,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,359 +461,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E2" sqref="E2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <f>0.9</f>
         <v>0.9</v>
       </c>
-      <c r="D2" s="1">
-        <v>0.77623456790123457</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.4667697063369397</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.25076923076923074</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.45749613601236472</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.76080246913580241</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.27384615384615385</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.41013824884792627</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.2749615975422427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>2016</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <f>1-0.0774</f>
         <v>0.92259999999999998</v>
       </c>
-      <c r="D3" s="1">
-        <v>0.82714054927302105</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.60813008130081303</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.3381877022653722</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.54457050243111826</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.81229773462783172</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.33387358184764993</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.36833602584814218</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0.30744336569579289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2016</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
         <f>1-0.071956</f>
         <v>0.92804399999999998</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.8564593301435407</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.59715639810426535</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0.37588652482269502</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.59619952494061756</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.87173396674584325</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.39047619047619042</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.49408983451536648</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.42688679245283023</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2016</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
         <f>1-0.07843</f>
         <v>0.92157</v>
       </c>
-      <c r="D5" s="1">
-        <v>0.82363977485928708</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.601123595505618</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.37222222222222223</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.51024208566108009</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.80333951762523192</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.38919925512104281</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.47047970479704793</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.34750462107208868</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2016</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.77623456790123457</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2016</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.82714054927302105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2016</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.8564593301435407</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2016</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.82363977485928708</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2016</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.4667697063369397</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2016</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.60813008130081303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>2016</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.59715639810426535</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>2016</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.601123595505618</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>2016</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.25076923076923074</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2016</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.3381877022653722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2016</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.37588652482269502</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2016</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="4:11">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.37222222222222223</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>2016</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="4:11">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.45749613601236472</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2016</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="4:11">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.54457050243111826</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>2016</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="4:11">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.59619952494061756</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>2016</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="4:11">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.51024208566108009</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>2016</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.76080246913580241</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>2016</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.81229773462783172</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>2016</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.87173396674584325</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>2016</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.80333951762523192</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>2016</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.27384615384615385</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>2016</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.33387358184764993</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>2016</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.39047619047619042</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>0.38919925512104281</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>2016</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.41013824884792627</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2016</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0.36833602584814218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2016</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.49408983451536648</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2016</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.47047970479704793</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.2749615975422427</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>2016</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.30744336569579289</v>
+      </c>
+      <c r="C35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>2016</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.42688679245283023</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>2016</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.34750462107208868</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>2016</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/prep/R/rc_percent_participation.xlsx
+++ b/prep/R/rc_percent_participation.xlsx
@@ -63,7 +63,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>this is percent of residents that participate in this activities at least once per year</t>
+    <t>this is percent of residents that participate in this activity at least once per year</t>
   </si>
 </sst>
 </file>

--- a/prep/R/rc_percent_participation.xlsx
+++ b/prep/R/rc_percent_participation.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28615"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eschemmel/Documents/github/mhi/prep/R/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="420" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="2480" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -63,7 +71,7 @@
     <t>Note</t>
   </si>
   <si>
-    <t>this is percent of residents that participate in this activity at least once per year</t>
+    <t>This is percent of residents that participate in this activity at least once per year</t>
   </si>
 </sst>
 </file>
@@ -136,6 +144,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -464,16 +477,16 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E37"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -490,7 +503,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -508,7 +521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -526,7 +539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4</v>
       </c>
@@ -544,7 +557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -562,7 +575,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -584,7 +597,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -606,7 +619,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -628,7 +641,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -650,7 +663,7 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -672,7 +685,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1</v>
       </c>
@@ -694,7 +707,7 @@
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>4</v>
       </c>
@@ -716,7 +729,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -738,7 +751,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -760,7 +773,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -782,7 +795,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -804,7 +817,7 @@
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -826,7 +839,7 @@
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -848,7 +861,7 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -870,7 +883,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -892,7 +905,7 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -914,7 +927,7 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -931,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1</v>
       </c>
@@ -948,7 +961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -965,7 +978,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -982,7 +995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -999,7 +1012,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1016,7 +1029,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1067,7 +1080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1135,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1152,7 +1165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -1189,10 +1202,5 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>